--- a/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2011 (PWP11).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Wizards Play Network 2011 (PWP11).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,518 +444,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Auramancer</t>
+          <t>('Auramancer', ['{2}{W}', 'Creature — Human Wizard', 'When Auramancer enters the battlefield, you may return target enchantment card from your graveyard to your hand.', '2/2'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{W}</t>
+          <t>('Bloodcrazed Neonate', ['{1}{R}', 'Creature — Vampire', 'Bloodcrazed Neonate attacks each combat if able.', 'Whenever Bloodcrazed Neonate deals combat damage to a player, put a +1/+1 counter on it.', '2/1'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Creature — Human Wizard</t>
+          <t>('Boneyard Wurm', ['{1}{G}', 'Creature — Wurm', 'Boneyard Wurm’s power and toughness are each equal to the number of creature cards in your graveyard.', '*/*'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>When Auramancer enters the battlefield, you may return target enchantment card from your graveyard to your hand.</t>
+          <t>('Circle of Flame', ['{1}{R}', 'Enchantment', 'Whenever a creature without flying attacks you or a planeswalker you control, Circle of Flame deals 1 damage to that creature.'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/2</t>
+          <t>('Curse of the Bloody Tome', ['{2}{U}', 'Enchantment — Aura Curse', 'Enchant player', 'At the beginning of enchanted player’s upkeep, that player mills two cards.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bloodcrazed Neonate</t>
+          <t>('Fling', ['{1}{R}', 'Instant', 'As an additional cost to cast this spell, sacrifice a creature.', 'Fling deals damage equal to the sacrificed creature’s power to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{1}{R}</t>
+          <t>("Master's Call", ['{2}{W}', 'Instant', 'Create two 1/1 colorless Myr artifact creature tokens.'])</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Creature — Vampire</t>
+          <t>('Maul Splicer', ['{6}{G}', 'Creature — Human Artificer', 'When Maul Splicer enters the battlefield, create two 3/3 colorless Golem artifact creature tokens.', 'Golem creatures you control have trample.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bloodcrazed Neonate attacks each combat if able.</t>
+          <t>('Plague Myr', ['{2}', 'Artifact Creature — Myr', 'Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)', '{T}: Add {C}.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Whenever Bloodcrazed Neonate deals combat damage to a player, put a +1/+1 counter on it.</t>
+          <t>('Shrine of Burning Rage', ['{2}', 'Artifact', 'At the beginning of your upkeep or whenever you cast a red spell, put a charge counter on Shrine of Burning Rage.', '{3}, {T}, Sacrifice Shrine of Burning Rage: It deals damage equal to the number of charge counters on it to any target.'])</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>('Signal Pest', ['{1}', 'Artifact Creature — Pest', 'Battle cry (Whenever this creature attacks, each other attacking creature gets +1/+0 until end of turn.)', 'Signal Pest can’t be blocked except by creatures with flying or reach.', '0/1'])</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Boneyard Wurm</t>
+          <t>('Sylvan Ranger', ['{1}{G}', 'Creature — Elf Scout', 'When Sylvan Ranger enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{1}{G}</t>
+          <t>('Tormented Soul', ['{B}', 'Creature — Spirit', 'Tormented Soul can’t block and can’t be blocked.', '1/1'])</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Creature — Wurm</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Boneyard Wurm’s power and toughness are each equal to the number of creature cards in your graveyard.</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>*/*</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Circle of Flame</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Enchantment</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Whenever a creature without flying attacks you or a planeswalker you control, Circle of Flame deals 1 damage to that creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Curse of the Bloody Tome</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>{2}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Enchantment — Aura Curse</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Enchant player</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>At the beginning of enchanted player’s upkeep, that player mills two cards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Fling</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>{1}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>As an additional cost to cast this spell, sacrifice a creature.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fling deals damage equal to the sacrificed creature’s power to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Master's Call</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>{2}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Create two 1/1 colorless Myr artifact creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Maul Splicer</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>{6}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Creature — Human Artificer</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>When Maul Splicer enters the battlefield, create two 3/3 colorless Golem artifact creature tokens.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Golem creatures you control have trample.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Plague Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Myr</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Infect (This creature deals damage to creatures in the form of -1/-1 counters and to players in the form of poison counters.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>{T}: Add {C}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Shrine of Burning Rage</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>{2}</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>At the beginning of your upkeep or whenever you cast a red spell, put a charge counter on Shrine of Burning Rage.</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>{3}, {T}, Sacrifice Shrine of Burning Rage: It deals damage equal to the number of charge counters on it to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Signal Pest</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>{1}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Pest</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Battle cry (Whenever this creature attacks, each other attacking creature gets +1/+0 until end of turn.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Signal Pest can’t be blocked except by creatures with flying or reach.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>0/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Sylvan Ranger</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>{1}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Creature — Elf Scout</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>When Sylvan Ranger enters the battlefield, you may search your library for a basic land card, reveal it, put it into your hand, then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Tormented Soul</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Creature — Spirit</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Tormented Soul can’t block and can’t be blocked.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1/1</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Vault Skirge</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>{1}{B/P}</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Artifact Creature — Imp</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>({B/P} can be paid with either {B} or 2 life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Lifelink (Damage dealt by this creature also causes you to gain that much life.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>1/1</t>
+          <t>('Vault Skirge', ['{1}{B/P}', 'Artifact Creature — Imp', '({B/P} can be paid with either {B} or 2 life.)', 'Flying', 'Lifelink (Damage dealt by this creature also causes you to gain that much life.)', '1/1'])</t>
         </is>
       </c>
     </row>
